--- a/dailynote/钟昱生2023年5月份第二周工作周报.xlsx
+++ b/dailynote/钟昱生2023年5月份第二周工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="7230"/>
+    <workbookView windowWidth="16065" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>钟昱生</t>
   </si>
@@ -58,10 +58,21 @@
 </t>
   </si>
   <si>
+    <t>foxdoor</t>
+  </si>
+  <si>
+    <t>1. 修复安装时出现，权限不够的问题。
+2. 去除 查看网络时出现ipv6的地址。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工作内容1、2已完成。
+</t>
+  </si>
+  <si>
     <t>下周工作计划</t>
   </si>
   <si>
-    <t>1.完善KBN可能存在的bug</t>
+    <t>1.修复可能出现的bug</t>
   </si>
 </sst>
 </file>
@@ -1224,13 +1235,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -1278,7 +1289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="58" customHeight="1" spans="1:5">
+    <row r="4" ht="72" customHeight="1" spans="1:5">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1291,28 +1302,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="66" customHeight="1" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="147" customHeight="1"/>
+    <row r="7" ht="60" customHeight="1" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="147" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
